--- a/IT Projekt/07 - Kunden Buchungs System 2024/03_Arbeitsaufteilung/Teamaufteilung Vorlage.xlsx
+++ b/IT Projekt/07 - Kunden Buchungs System 2024/03_Arbeitsaufteilung/Teamaufteilung Vorlage.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6452419C-C264-45FA-9786-43ECC83CAFBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EFC6A9-5474-4E87-AE80-05CE42F5BC6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Team 1</t>
   </si>
@@ -91,15 +91,9 @@
     <t>Startseite / Navbar-Items</t>
   </si>
   <si>
-    <t>Dasbhoard</t>
-  </si>
-  <si>
     <t>Event buchen</t>
   </si>
   <si>
-    <t>Meine akitven Buchungen</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -137,6 +131,12 @@
   </si>
   <si>
     <t>offen</t>
+  </si>
+  <si>
+    <t>Meine aktiven Buchungen</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
@@ -409,52 +409,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,317 +762,317 @@
   <sheetData>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="F3" s="20" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="F3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="K3" s="20" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="K3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
-      <c r="P3" s="20" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23"/>
+      <c r="P3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="22"/>
-      <c r="U3" s="20" t="s">
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="23"/>
+      <c r="U3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="23"/>
     </row>
     <row r="4" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="25"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="23" t="s">
+      <c r="V4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="23"/>
-      <c r="X4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="25"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="25"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
       <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="25"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18"/>
       <c r="P5" s="2">
         <v>1</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="25"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
       <c r="U5" s="2">
         <v>1</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="25"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="18"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
       <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="25"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
       <c r="K6" s="2">
         <v>2</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="25"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
       <c r="P6" s="2">
         <v>2</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="25"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
       <c r="U6" s="2">
         <v>2</v>
       </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="25"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="18"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
       <c r="F7" s="2">
         <v>3</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="25"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
       <c r="K7" s="2">
         <v>3</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="25"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="18"/>
       <c r="P7" s="2">
         <v>3</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="25"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
       <c r="U7" s="2">
         <v>3</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="25"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="18"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="25"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
       <c r="K8" s="2">
         <v>4</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="25"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="18"/>
       <c r="P8" s="2">
         <v>4</v>
       </c>
-      <c r="Q8" s="18" t="s">
+      <c r="Q8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="25"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
       <c r="U8" s="2">
         <v>4</v>
       </c>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="25"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="18"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
       <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
       <c r="K9" s="2">
         <v>5</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="27"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
       <c r="P9" s="2">
         <v>5</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="27"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="20"/>
       <c r="U9" s="2">
         <v>5</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="27"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="20"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="16"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="28"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="16"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="28"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="17"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="17"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="U11" s="2"/>
-      <c r="V11" s="17" t="s">
+      <c r="V11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="17"/>
+      <c r="W11" s="26"/>
       <c r="X11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1081,212 +1081,249 @@
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="30">
+      <c r="G12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15">
         <v>1</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
-      <c r="L12" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="29"/>
+      <c r="L12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="30"/>
       <c r="N12" s="13">
         <v>2</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
-      <c r="Q12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" s="18"/>
+      <c r="Q12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="17"/>
       <c r="S12" s="4">
         <v>1</v>
       </c>
       <c r="U12" s="2">
         <v>1</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="18"/>
+      <c r="B13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="7">
         <v>2</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="18"/>
+      <c r="G13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="17"/>
       <c r="I13" s="13">
         <v>2</v>
       </c>
       <c r="K13" s="2">
         <v>2</v>
       </c>
-      <c r="L13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="29"/>
+      <c r="L13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="30"/>
       <c r="N13" s="13">
         <v>3</v>
       </c>
       <c r="P13" s="2">
         <v>2</v>
       </c>
-      <c r="Q13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" s="18"/>
+      <c r="Q13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="17"/>
       <c r="S13" s="4">
         <v>2</v>
       </c>
       <c r="U13" s="2">
         <v>2</v>
       </c>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
       <c r="X13" s="4"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="18"/>
+      <c r="B14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="17"/>
       <c r="D14" s="7">
         <v>3</v>
       </c>
       <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="18"/>
+      <c r="G14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="17"/>
       <c r="I14" s="13">
         <v>3</v>
       </c>
       <c r="K14" s="2">
         <v>3</v>
       </c>
-      <c r="L14" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="29"/>
+      <c r="L14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="30"/>
       <c r="N14" s="13">
         <v>4</v>
       </c>
       <c r="P14" s="2">
         <v>3</v>
       </c>
-      <c r="Q14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="18"/>
+      <c r="Q14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="17"/>
       <c r="S14" s="4">
         <v>3</v>
       </c>
       <c r="U14" s="2">
         <v>3</v>
       </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
       <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="19"/>
+      <c r="B15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="12">
         <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>4</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="5"/>
       <c r="K15" s="3">
         <v>4</v>
       </c>
-      <c r="L15" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="28"/>
+      <c r="L15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="29"/>
       <c r="N15" s="14">
         <v>1</v>
       </c>
       <c r="P15" s="3">
         <v>4</v>
       </c>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
       <c r="S15" s="5"/>
       <c r="U15" s="3">
         <v>4</v>
       </c>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
       <c r="X15" s="5"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="B8:D8"/>
@@ -1303,49 +1340,12 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1353,6 +1353,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BFE9B5086E77D949AAD627BB14F0154B" ma:contentTypeVersion="12" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ac248a4c3e1324067bcbbcde835f2ac8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3db2b21f-43a1-4a2d-9340-ab72cfb2403d" xmlns:ns3="e93d4cc5-6179-4844-8a3e-a17ec3a3cada" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd5f17664239ff9f3dbbc31e13671ab" ns2:_="" ns3:_="">
     <xsd:import namespace="3db2b21f-43a1-4a2d-9340-ab72cfb2403d"/>
@@ -1553,15 +1562,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1574,6 +1574,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27274160-6063-4324-94AA-BB11152D2319}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2D17B01-16A1-46D3-A940-36D404EB4ED4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1592,14 +1600,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27274160-6063-4324-94AA-BB11152D2319}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00874C79-A719-4475-8B8D-B839B7246013}">
   <ds:schemaRefs>
